--- a/dataset/高等教育入学率.xlsx
+++ b/dataset/高等教育入学率.xlsx
@@ -61,6 +61,134 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -70,140 +198,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -214,6 +214,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -226,7 +256,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,13 +364,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,13 +382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,121 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,8 +426,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,11 +462,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,8 +480,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,21 +501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -520,6 +511,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -528,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,133 +540,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:K6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>

--- a/dataset/高等教育入学率.xlsx
+++ b/dataset/高等教育入学率.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>country</t>
   </si>
@@ -28,10 +28,7 @@
     <t>Australia</t>
   </si>
   <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>India</t>
+    <t>Mexico</t>
   </si>
 </sst>
 </file>
@@ -61,6 +58,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -69,74 +125,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,22 +150,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,26 +163,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,6 +185,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -214,25 +211,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,157 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,23 +423,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,17 +444,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,7 +457,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,11 +488,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,10 +525,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,7 +537,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,130 +546,133 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -681,7 +681,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1002,213 +1002,181 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="17.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="17.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="6" width="12.8888888888889" style="1"/>
+    <col min="7" max="7" width="11.7777777777778" style="1"/>
+    <col min="8" max="11" width="12.8888888888889" style="1"/>
+    <col min="12" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="3">
         <v>2010</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="3">
         <v>2011</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="3">
         <v>2012</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="3">
         <v>2013</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="3">
         <v>2014</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="3">
         <v>2015</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="3">
         <v>2016</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="3">
         <v>2017</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="3">
         <v>2018</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>92.6219482421875</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>93.9065780639648</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>93.1754913330078</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>88.7264175415039</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>88.6268692016602</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>88.8894119262695</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>88.8350524902344</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>88.1673889160156</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="4">
         <v>88.2991790771484</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>58.9233512878418</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>59.1459312438965</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>59.4021186828613</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>57.038761138916</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>56.5644989013672</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <v>56.4584884643555</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>58.4256210327148</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <v>59.9955711364746</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="4">
         <v>61.3828887939453</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3">
+      <c r="C4" s="4">
+        <v>80.9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>85.4</v>
+      </c>
+      <c r="F4" s="4">
+        <v>86.6</v>
+      </c>
+      <c r="G4" s="4">
+        <v>90.3</v>
+      </c>
+      <c r="H4" s="4">
         <v>118.610862731934</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>120.965713500977</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="4">
         <v>113.142158508301</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="4">
         <v>107.808052062988</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
-        <v>61.6558494567871</v>
-      </c>
-      <c r="D5" s="3">
-        <v>63.4673194885254</v>
-      </c>
-      <c r="E5" s="3">
-        <v>63.980770111084</v>
-      </c>
-      <c r="F5" s="3">
-        <v>65.3322982788086</v>
-      </c>
-      <c r="G5" s="3">
-        <v>65.612907409668</v>
-      </c>
-      <c r="H5" s="3">
-        <v>64.7869567871094</v>
-      </c>
-      <c r="I5" s="3">
-        <v>66.4391784667969</v>
-      </c>
-      <c r="J5" s="3">
-        <v>68.9225082397461</v>
-      </c>
-      <c r="K5" s="3">
-        <v>70.1130218505859</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>17.8338794708252</v>
-      </c>
-      <c r="D6" s="3">
-        <v>22.7646503448486</v>
-      </c>
-      <c r="E6" s="3">
-        <v>24.2679805755615</v>
-      </c>
-      <c r="F6" s="3">
-        <v>23.7948303222656</v>
-      </c>
-      <c r="G6" s="3">
-        <v>25.4321308135986</v>
-      </c>
-      <c r="H6" s="3">
-        <v>26.7689895629883</v>
-      </c>
-      <c r="I6" s="3">
-        <v>26.8292198181152</v>
-      </c>
-      <c r="J6" s="3">
-        <v>27.4421291351318</v>
-      </c>
-      <c r="K6" s="3">
-        <v>28.0605506896973</v>
+      <c r="C5" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1">
+        <v>28.3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>29.2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>29.9</v>
       </c>
     </row>
   </sheetData>
